--- a/medicine/Autisme/Simple_Simon/Simple_Simon.xlsx
+++ b/medicine/Autisme/Simple_Simon/Simple_Simon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Simple Simon (I rymden finns inga känslor, littéralement « Dans l’espace on ne ressent rien ») est une comédie suédoise d’Andreas Öhman sortie au cinéma le 13 septembre 2010[1]. Le film était à l'origine destiné à passer sur la chaîne de télévision publique SVT. Le film a été sélectionné par la Suède pour concourir à une éventuelle nomination aux Oscars dans la catégorie du meilleur film en langue étrangère[2].
+Simple Simon (I rymden finns inga känslor, littéralement « Dans l’espace on ne ressent rien ») est une comédie suédoise d’Andreas Öhman sortie au cinéma le 13 septembre 2010. Le film était à l'origine destiné à passer sur la chaîne de télévision publique SVT. Le film a été sélectionné par la Suède pour concourir à une éventuelle nomination aux Oscars dans la catégorie du meilleur film en langue étrangère.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simon, dix-huit ans, partage un appartement avec son frère Sam et sa copine Frida. Simon souffre du syndrome d’Asperger et doit vivre selon un programme bien déterminé chaque jour pour se sentir bien. Lorsque la relation entre Sam et sa copine prend fin, Simon part en quête d’une nouvelle petite-amie pour son frère, non sans surprises[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simon, dix-huit ans, partage un appartement avec son frère Sam et sa copine Frida. Simon souffre du syndrome d’Asperger et doit vivre selon un programme bien déterminé chaque jour pour se sentir bien. Lorsque la relation entre Sam et sa copine prend fin, Simon part en quête d’une nouvelle petite-amie pour son frère, non sans surprises.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Simple Simon
 Titre original : I rymden finns inga känslor
@@ -586,7 +602,9 @@
           <t>Distribution[4]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bill Skarsgård : Simon
 Martin Wallström : Sam
@@ -647,12 +665,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-2010 : Meilleur film novella (Prix du public) au Festival international du film de Göteborg
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2010 : Meilleur film novella (Prix du public) au Festival international du film de Göteborg
 2011 : Prix de la ville de Göteborg au Festival international du film de Göteborg
-2011 : Prix du public au Festival du film de Belfast
-Nominations
-2011 : Festival du film de Gand
+2011 : Prix du public au Festival du film de Belfast</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Simple_Simon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simple_Simon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2011 : Festival du film de Gand
 2011 : 2e place comme meilleur long-métrage narratif (Prix du public) au Festival internationale du film de Palm Springs</t>
         </is>
       </c>
